--- a/DataTable/CropRepeatQuestTable.xlsx
+++ b/DataTable/CropRepeatQuestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3B4B43C-9286-2E4E-84CF-BDE6B020A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{965F0318-9670-564B-8F71-D5F9F307440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="22">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -69,27 +69,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>targetValueMultiplierByStorageLevel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 기존 작물 가격에 대한 배수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>targetValueMultiplierByRepeatCount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 반복 횟수 * targetValueMultiplierByRepeatCount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 저장고 레벨 * targetValueMultiplierByStorageLevel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// = targetVlaue * 저장고 레벨 계수 * 반복 횟수 계수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -110,7 +90,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>// 반복 횟수 * rewardMultiplierByRepeatCount</t>
+    <t>// = targetVlaue * (1 + 반복 횟수 * targetValueMultiplierByRepeatCount)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 기존 가격 * rewardMultiplierByDefaultPrice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>// rewardItemAmount * (1 + 반복 횟수 * rewardMultiplierByRepeatCount)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1093,49 +1081,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,19 +1130,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1175,19 +1153,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="38">
+    <row r="4" spans="1:7" ht="38">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1198,19 +1173,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2">
         <v>0.25</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.25</v>
       </c>
       <c r="G4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
